--- a/Report Templete.xlsx
+++ b/Report Templete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45694723-CB4F-4B87-AFFB-4919B51974D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3E4CE-B348-48E5-8F1C-CDF29664D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -795,6 +795,66 @@
 &lt;/tr&gt;
 &lt;/tbody&gt;
 &lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>قيد</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>EntryAccounting</t>
+  </si>
+  <si>
+    <t>&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 24pt;"&gt;قيد رقم {{Id}}&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&lt;span style="font-size: 12pt; font-family: 'arial black', 'avant garde';"&gt;&amp;nbsp;تاريخ : &amp;nbsp;{#formatDate('{{FakeDate}}')/}&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table dir="rtl" style="width: 783px; border-color: #000000; margin-left: auto; margin-right: auto;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 122.156px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الرقم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 234.578px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم الحساب&lt;br /&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 257.203px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاسم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 229.734px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;المدين&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 229.734px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الدائن&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr id="EntryMovements"&gt;
+&lt;td style="width: 122.156px; text-align: center;"&gt;{{EntryMovements.Id}}&lt;/td&gt;
+&lt;td style="width: 234.578px; text-align: center;"&gt;{{EntryMovements.AccountId}}&lt;/td&gt;
+&lt;td style="width: 257.203px; text-align: center;"&gt;{{EntryMovements.Name}}&lt;/td&gt;
+&lt;td style="width: 229.734px; text-align: center;"&gt;{#ToFixed({{EntryMovements.Credit}})/}&lt;/td&gt;
+&lt;td style="width: 229.734px; text-align: center;"&gt;{#ToFixed({{EntryMovements.Debit}})/}&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div style="position: fixed; left: 0; bottom: 25px; width: 100%;"&gt;
+&lt;table dir="rtl" style="width: 60%; border-collapse: collapse; border-color: #000000; border-style: solid; float: left;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 33.3333%; text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;مجموع المدين&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 33.3333%; text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;{#ToFixed({{TotalCredit}})/}&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td style="width: 33.3333%; text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;مجموع الدائن&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 33.3333%; text-align: right;"&gt;&lt;span style="font-size: 14pt; font-family: tahoma, arial, helvetica, sans-serif;"&gt;&lt;strong&gt;{#ToFixed({{TotalDebit}})/}&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p dir="rtl" style="text-align: right;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="rtl" style="text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;اسم المستلم&amp;nbsp; :&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="rtl" style="text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;توقيع المستلم :&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p dir="rtl" style="text-align: right;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;تاريخ الاستلام&amp;nbsp; :&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;table style="width: 100%; border-collapse: collapse; border-color: #000000; border-style: solid;" border="1.5"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td dir="rtl" style="width: 80%;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt; {{Description}}&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td dir="rtl" style="width: 20%;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;&lt;span style="font-family: tahoma, arial, helvetica, sans-serif;"&gt;ملاحظات &lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1391,8 +1451,31 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:G9" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Report Templete.xlsx
+++ b/Report Templete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE3E4CE-B348-48E5-8F1C-CDF29664D586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18E8DD-4899-4B8C-90CB-5FBBDA07A008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="3165" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -800,9 +800,6 @@
     <t>قيد</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>EntryAccounting</t>
   </si>
   <si>
@@ -855,6 +852,52 @@
 &lt;/tbody&gt;
 &lt;/table&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>MemberList</t>
+  </si>
+  <si>
+    <t>&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 24pt;"&gt;كشف مشتركين&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table dir="rtl" style="width: 100%; border-collapse: collapse; margin-left: auto; margin-right: auto;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;عدد الأشخاص&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع المدين&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع الدائن&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;الرصيد&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Rows}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalCredit}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalDebit}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Totals}})/}&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table dir="rtl" style="width: 100%; border-color: #000000; margin-left: auto; margin-right: auto;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 125.562px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 250px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاسم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 156.906px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم الهاتف&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;مدين&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;دائن&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رصيد&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr id="Items"&gt;
+&lt;td style="width: 125.562px; text-align: center;"&gt;{{Items.Id}}&lt;/td&gt;
+&lt;td style="width: 250px; text-align: center;"&gt;{{Items.Name}}&lt;/td&gt;
+&lt;td style="width: 156.906px; text-align: center;"&gt;{{Items.PhoneNumber1}}&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;{#ToFixed({{Items.TotalCredit}})/}&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;{#ToFixed({{Items.TotalDebit}})/}&lt;/td&gt;
+&lt;td style="width: 65px; text-align: center;"&gt;{#ToFixed({{Items.TotalCredit}}-{{Items.TotalDebit}})/}&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1278,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1459,18 +1502,24 @@
         <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Report Templete.xlsx
+++ b/Report Templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18E8DD-4899-4B8C-90CB-5FBBDA07A008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA946C2B-D00D-41E3-92B3-02814904360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3165" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -899,6 +899,46 @@
 &lt;/tbody&gt;
 &lt;/table&gt;</t>
   </si>
+  <si>
+    <t>MemberShipList</t>
+  </si>
+  <si>
+    <t>&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 24pt;"&gt;كشف مشتركين&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;hr dir="rtl" /&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table dir="rtl" style="width: 100%; border-collapse: collapse; margin-left: auto; margin-right: auto;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;عدد الأشخاص&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع المدين&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع الدائن&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;الرصيد&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Rows}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalCredit}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalDebit}})/}&lt;/td&gt;
+&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Totals}})/}&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;table dir="rtl" style="width: 100%; border-color: #000000; margin-left: auto; margin-right: auto;" border="1"&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td style="width: 125.562px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 250px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاسم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;&lt;td style="width: 156.906px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاشتراك&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;td style="width: 156.906px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم الهاتف&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr id="Items"&gt;
+&lt;td style="width: 125.562px; text-align: center;"&gt;{{Items.Id}}&lt;/td&gt;
+&lt;td style="width: 250px; text-align: center;"&gt;{{Items.Name}}&lt;/td&gt;&lt;td style="width: 156.906px; text-align: center;"&gt;{{Items.MembershipName}}&lt;/td&gt;
+&lt;td style="width: 156.906px; text-align: center;"&gt;{{Items.PhoneNumber1}}&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -908,7 +948,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -933,9 +973,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,23 +1318,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="6974.875" customWidth="1"/>
-    <col min="6" max="7" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6974.88671875" customWidth="1"/>
+    <col min="6" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -1328,7 +1371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1342,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1356,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1370,7 +1413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1384,7 +1427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1398,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1415,7 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1432,7 +1475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1446,7 +1489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1460,7 +1503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1477,7 +1520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1494,7 +1537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1508,7 +1551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1520,6 +1563,20 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Report Templete.xlsx
+++ b/Report Templete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ERP\ConicErpDeploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA946C2B-D00D-41E3-92B3-02814904360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032B9C9-D11C-4887-ACB0-6FB6ECAA64B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -901,43 +901,6 @@
   </si>
   <si>
     <t>MemberShipList</t>
-  </si>
-  <si>
-    <t>&lt;hr dir="rtl" /&gt;
-&lt;p dir="rtl" style="text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 24pt;"&gt;كشف مشتركين&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;hr dir="rtl" /&gt;
-&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table dir="rtl" style="width: 100%; border-collapse: collapse; margin-left: auto; margin-right: auto;" border="1"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;عدد الأشخاص&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع المدين&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;مجموع الدائن&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;&lt;span style="font-size: 14pt;"&gt;&lt;strong&gt;الرصيد&lt;/strong&gt;&lt;/span&gt;&lt;/td&gt;
-&lt;/tr&gt;
-&lt;tr&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Rows}})/}&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalCredit}})/}&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.TotalDebit}})/}&lt;/td&gt;
-&lt;td style="width: 16.6667%; text-align: center;"&gt;{#ToFixed({{Totals.Totals}})/}&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;
-&lt;p dir="rtl" style="text-align: center;"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;table dir="rtl" style="width: 100%; border-color: #000000; margin-left: auto; margin-right: auto;" border="1"&gt;
-&lt;tbody&gt;
-&lt;tr&gt;
-&lt;td style="width: 125.562px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
-&lt;td style="width: 250px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاسم&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;&lt;td style="width: 156.906px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;الاشتراك&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
-&lt;td style="width: 156.906px; text-align: center;"&gt;&lt;strong&gt;&lt;span style="font-size: 14pt;"&gt;رقم الهاتف&lt;/span&gt;&lt;/strong&gt;&lt;/td&gt;
-&lt;/tr&gt;
-&lt;tr id="Items"&gt;
-&lt;td style="width: 125.562px; text-align: center;"&gt;{{Items.Id}}&lt;/td&gt;
-&lt;td style="width: 250px; text-align: center;"&gt;{{Items.Name}}&lt;/td&gt;&lt;td style="width: 156.906px; text-align: center;"&gt;{{Items.MembershipName}}&lt;/td&gt;
-&lt;td style="width: 156.906px; text-align: center;"&gt;{{Items.PhoneNumber1}}&lt;/td&gt;
-&lt;/tr&gt;
-&lt;/tbody&gt;
-&lt;/table&gt;</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1284,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1565,9 +1528,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
@@ -1575,9 +1538,7 @@
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
